--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC3DEDC-9923-9547-AAB6-0B5B66D913E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7FDE9-62CE-DF42-97C5-6DC8E1E24C9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847723-DBE4-1F44-ABB2-40B976A63AB1}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>

--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7FDE9-62CE-DF42-97C5-6DC8E1E24C9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58464032-95C0-EF4C-8B88-2A9F17E39FBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <definedName name="_Toc506026463" localSheetId="0">Feuil1!$B$47</definedName>
     <definedName name="_Toc508916373" localSheetId="0">Feuil1!$C$3</definedName>
     <definedName name="_Toc508916390" localSheetId="0">Feuil1!$D$3</definedName>
+    <definedName name="_Toc512519758" localSheetId="0">Feuil1!$E$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Compétence</t>
   </si>
@@ -185,9 +186,6 @@
     <t>Spécifications, Environnement technique, Réalisation et gestion</t>
   </si>
   <si>
-    <t>Non pratiqué</t>
-  </si>
-  <si>
     <t>Autres compétences à décrire :</t>
   </si>
   <si>
@@ -201,6 +199,9 @@
   </si>
   <si>
     <t>Travail R&amp;D, Spécifications, Réalisation et gestion</t>
+  </si>
+  <si>
+    <t>Spécification, suivi du budget</t>
   </si>
 </sst>
 </file>
@@ -374,10 +375,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847723-DBE4-1F44-ABB2-40B976A63AB1}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -710,11 +711,11 @@
   <sheetData>
     <row r="2" spans="2:6" ht="40" customHeight="1">
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="40" customHeight="1">
@@ -749,43 +750,25 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="40" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="40" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="40" customHeight="1">
       <c r="B8" s="8" t="s">
@@ -817,7 +800,7 @@
     </row>
     <row r="10" spans="2:6" ht="40" customHeight="1">
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -825,7 +808,7 @@
     </row>
     <row r="11" spans="2:6" ht="40" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>28</v>
@@ -839,7 +822,7 @@
     </row>
     <row r="12" spans="2:6" ht="40" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>47</v>
@@ -847,13 +830,11 @@
       <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="40" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>39</v>
@@ -887,23 +868,17 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="40" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" ht="40" customHeight="1">
       <c r="B17" s="8" t="s">
@@ -923,15 +898,9 @@
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" ht="40" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -942,16 +911,14 @@
         <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="40" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
         <v>28</v>
       </c>
@@ -963,36 +930,32 @@
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>49</v>
+      <c r="E21" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="40" customHeight="1">
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>49</v>
+      <c r="E22" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="40" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>54</v>
+      <c r="C23" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
@@ -1025,9 +988,7 @@
       <c r="D25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" ht="40" customHeight="1">
       <c r="B26" s="8" t="s">
@@ -1053,9 +1014,7 @@
       <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" ht="40" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -1073,29 +1032,21 @@
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" ht="40" customHeight="1">
       <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="40" customHeight="1">
       <c r="B31" s="8" t="s">
@@ -1107,37 +1058,27 @@
       <c r="D31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="40" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="40" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:5" ht="40" customHeight="1">
       <c r="B34" s="6" t="s">

--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58464032-95C0-EF4C-8B88-2A9F17E39FBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376650FB-A63E-8E45-ACF8-5E794D3ADBAB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Compétence</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Spécification, suivi du budget</t>
+  </si>
+  <si>
+    <t>✓ (RGPD)</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847723-DBE4-1F44-ABB2-40B976A63AB1}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -751,7 +754,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="40" customHeight="1">
@@ -868,7 +873,9 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="40" customHeight="1">
       <c r="B16" s="8" t="s">
@@ -878,7 +885,9 @@
       <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="40" customHeight="1">
       <c r="B17" s="8" t="s">
@@ -900,7 +909,9 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="40" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -919,9 +930,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
@@ -931,9 +940,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="14" t="s">
         <v>28</v>
       </c>
@@ -943,9 +950,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>

--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376650FB-A63E-8E45-ACF8-5E794D3ADBAB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5AE06-D30D-7045-B51E-1A43EB551797}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Compétence</t>
   </si>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847723-DBE4-1F44-ABB2-40B976A63AB1}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -1019,7 +1019,9 @@
       <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="40" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -1041,7 +1043,9 @@
       <c r="D29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="2:5" ht="40" customHeight="1">
       <c r="B30" s="8" t="s">
@@ -1063,7 +1067,9 @@
       <c r="D31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="40" customHeight="1">
       <c r="B32" s="8" t="s">

--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5AE06-D30D-7045-B51E-1A43EB551797}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EADC9D6-D424-6A44-BD34-5FDFF9625000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>Être capable de maintenir ses compétences ou connaissances métier</t>
   </si>
   <si>
-    <t>Nouvelle version de détection d’accident</t>
-  </si>
-  <si>
-    <t>Migration de la base de données</t>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>✓ (RGPD)</t>
+  </si>
+  <si>
+    <t>Nouvelle version de détection d’accidents</t>
+  </si>
+  <si>
+    <t>Migration et nouvelles fonctionnalités</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -726,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="40" customHeight="1">
@@ -740,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="40" customHeight="1">
@@ -755,13 +755,13 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="40" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -780,32 +780,32 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="40" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="40" customHeight="1">
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -813,42 +813,42 @@
     </row>
     <row r="11" spans="2:6" ht="40" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="40" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="40" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="40" customHeight="1">
@@ -856,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -868,13 +868,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="40" customHeight="1">
@@ -883,10 +883,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40" customHeight="1">
@@ -894,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="40" customHeight="1">
@@ -910,7 +910,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="40" customHeight="1">
@@ -919,10 +919,10 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="40" customHeight="1">
@@ -932,7 +932,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="40" customHeight="1">
@@ -942,7 +942,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="E21" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="40" customHeight="1">
@@ -952,7 +952,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="40" customHeight="1">
@@ -960,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="40" customHeight="1">
@@ -974,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="40" customHeight="1">
@@ -988,25 +988,25 @@
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" ht="40" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="40" customHeight="1">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="40" customHeight="1">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1041,10 +1041,10 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="40" customHeight="1">
@@ -1053,22 +1053,22 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="40" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="40" customHeight="1">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="40" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -1096,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="40" customHeight="1">
@@ -1110,13 +1110,13 @@
         <v>24</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="40" customHeight="1">
@@ -1124,13 +1124,13 @@
         <v>25</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="40" customHeight="1">

--- a/Annexes/[Annexe 1] Map competences - projects.xlsx
+++ b/Annexes/[Annexe 1] Map competences - projects.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Documents/Mes Documents/Mémoire/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EADC9D6-D424-6A44-BD34-5FDFF9625000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9FBB6A-C72A-2345-8CC3-76099F1D05D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{180DDFB3-D36C-6248-B464-0E2671F73A5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc506026457" localSheetId="0">Feuil1!$B$4</definedName>
-    <definedName name="_Toc506026458" localSheetId="0">Feuil1!$B$15</definedName>
-    <definedName name="_Toc506026459" localSheetId="0">Feuil1!$B$19</definedName>
-    <definedName name="_Toc506026460" localSheetId="0">Feuil1!$B$26</definedName>
-    <definedName name="_Toc506026461" localSheetId="0">Feuil1!$B$31</definedName>
-    <definedName name="_Toc506026462" localSheetId="0">Feuil1!$B$37</definedName>
-    <definedName name="_Toc506026463" localSheetId="0">Feuil1!$B$47</definedName>
+    <definedName name="_Toc506026458" localSheetId="0">Feuil1!$B$14</definedName>
+    <definedName name="_Toc506026459" localSheetId="0">Feuil1!$B$18</definedName>
+    <definedName name="_Toc506026460" localSheetId="0">Feuil1!$B$25</definedName>
+    <definedName name="_Toc506026461" localSheetId="0">Feuil1!$B$30</definedName>
+    <definedName name="_Toc506026462" localSheetId="0">Feuil1!$B$36</definedName>
+    <definedName name="_Toc506026463" localSheetId="0">Feuil1!$B$46</definedName>
     <definedName name="_Toc508916373" localSheetId="0">Feuil1!$C$3</definedName>
     <definedName name="_Toc508916390" localSheetId="0">Feuil1!$D$3</definedName>
-    <definedName name="_Toc512519758" localSheetId="0">Feuil1!$E$19</definedName>
+    <definedName name="_Toc512519758" localSheetId="0">Feuil1!$E$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Compétence</t>
   </si>
@@ -138,45 +138,9 @@
     <t>Réalisation et gestion</t>
   </si>
   <si>
-    <t>Préparatifs, Spécifications</t>
-  </si>
-  <si>
-    <t>Environnement technique</t>
-  </si>
-  <si>
-    <t>Estimation des charges et du budget</t>
-  </si>
-  <si>
     <t>SnipHub</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>✓ (Equipe)</t>
-  </si>
-  <si>
-    <t>✓ (Equipe, Recrutement de compétences)</t>
-  </si>
-  <si>
-    <t>✓ (Gestion de projet)</t>
-  </si>
-  <si>
-    <t>✓ (Logistique)</t>
-  </si>
-  <si>
-    <t>Préparatifs, Réalisation et gestion</t>
-  </si>
-  <si>
-    <t>✓ (Choix techniques)</t>
-  </si>
-  <si>
-    <t>✓ (Architecture)</t>
-  </si>
-  <si>
-    <t>✓ (Environnement technique)</t>
-  </si>
-  <si>
     <t>Spécifications, Environnement technique, Réalisation et gestion</t>
   </si>
   <si>
@@ -186,32 +150,50 @@
     <t>Utilisation d'un cadre DevOps pour améliorer la communication et le travail inter-équipes</t>
   </si>
   <si>
-    <t>Concevoir et appliquer un processus d'automatisation de tâches</t>
-  </si>
-  <si>
     <t>Savoir améliorer la qualité du projet</t>
   </si>
   <si>
     <t>Travail R&amp;D, Spécifications, Réalisation et gestion</t>
   </si>
   <si>
-    <t>Spécification, suivi du budget</t>
-  </si>
-  <si>
-    <t>✓ (RGPD)</t>
-  </si>
-  <si>
     <t>Nouvelle version de détection d’accidents</t>
   </si>
   <si>
     <t>Migration et nouvelles fonctionnalités</t>
+  </si>
+  <si>
+    <t>Préparatifs</t>
+  </si>
+  <si>
+    <t>Spécifications</t>
+  </si>
+  <si>
+    <t>Spécifications, Suivi du budget</t>
+  </si>
+  <si>
+    <t>Préparatifs, Spécifications, Réalisation et gestion</t>
+  </si>
+  <si>
+    <t>Environnement technique, Développement</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement, Développement</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Réalisation, Aspects juridiques</t>
+  </si>
+  <si>
+    <t>Equipe, Suivi du budget, Réalisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +252,12 @@
       <color theme="1"/>
       <name val="SF UI Display Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SF UI Display Regular"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -298,7 +286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,15 +348,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,6 +361,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847723-DBE4-1F44-ABB2-40B976A63AB1}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -714,11 +702,11 @@
   <sheetData>
     <row r="2" spans="2:6" ht="40" customHeight="1">
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="40" customHeight="1">
@@ -726,27 +714,27 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="40" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>46</v>
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="40" customHeight="1">
@@ -755,9 +743,11 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="40" customHeight="1">
       <c r="B6" s="8" t="s">
@@ -780,14 +770,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:6" ht="40" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -804,86 +792,88 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="40" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:6" ht="40" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="40" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="40" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="40" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" ht="40" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="2:6" ht="40" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="40" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:6" ht="40" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>26</v>
@@ -891,87 +881,85 @@
     </row>
     <row r="17" spans="2:5" ht="40" customHeight="1">
       <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="40" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="40" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="2:5" ht="40" customHeight="1">
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>52</v>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="40" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="40" customHeight="1">
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="40" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="14" t="s">
-        <v>26</v>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="40" customHeight="1">
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="40" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>26</v>
@@ -979,17 +967,13 @@
       <c r="D24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" ht="40" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
         <v>26</v>
       </c>
@@ -997,12 +981,12 @@
     </row>
     <row r="26" spans="2:5" ht="40" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -1010,70 +994,66 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="40" customHeight="1">
-      <c r="B27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>26</v>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="40" customHeight="1">
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" ht="40" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" ht="40" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="40" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="40" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
@@ -1082,32 +1062,36 @@
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="40" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="2:5" ht="40" customHeight="1">
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>37</v>
+      <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="40" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>26</v>
@@ -1120,27 +1104,13 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="40" customHeight="1">
-      <c r="B36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:5" ht="40" customHeight="1">
+      <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" ht="40" customHeight="1">
-      <c r="B38" s="15"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
